--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_24_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_24_37.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>35350.89354063378</v>
+        <v>6946452.4798713</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>35350.89354063378</v>
+        <v>6946452.4798713</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>18998.05640236796</v>
+        <v>1146088.991922074</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18998.05640236796</v>
+        <v>1146088.991922074</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1266970041.411877</v>
+        <v>52270972.85868423</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12163.33917825484</v>
+        <v>1342889.568298751</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22492.27720251393</v>
+        <v>2381875.626573141</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32821.21522677299</v>
+        <v>3420861.684847532</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>43596.02968437457</v>
+        <v>4415269.872603511</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>54501.69768265728</v>
+        <v>5419689.247209922</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>65368.98759976348</v>
+        <v>6424108.621816324</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>76248.01739681633</v>
+        <v>7428527.996422637</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>87073.13932602773</v>
+        <v>8432947.371028971</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>97829.23393516126</v>
+        <v>9444026.216678143</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>108534.7311105214</v>
+        <v>10453672.85366776</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>119239.8507479455</v>
+        <v>11463319.49065732</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>129944.9703853681</v>
+        <v>12472966.12764713</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>140650.0900227906</v>
+        <v>13482612.76463687</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>151355.2096602157</v>
+        <v>14492259.40162619</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>162059.9517597071</v>
+        <v>15501906.03861531</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>276</v>
@@ -27058,7 +27058,7 @@
         <v>-1.296612264588475e-10</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>288.0000000000559</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>825</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
